--- a/6/3/2/Total transacciones por contraparte 2007 a 2021 - Mensual.xlsx
+++ b/6/3/2/Total transacciones por contraparte 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Serie</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -917,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5403,7 +5406,7 @@
         <v>48976</v>
       </c>
       <c r="C173">
-        <v>22768</v>
+        <v>22766</v>
       </c>
       <c r="D173">
         <v>2588</v>
@@ -5429,10 +5432,10 @@
         <v>52463</v>
       </c>
       <c r="C174">
-        <v>20265</v>
+        <v>20258</v>
       </c>
       <c r="D174">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="E174">
         <v>8025</v>
@@ -5441,7 +5444,7 @@
         <v>2473</v>
       </c>
       <c r="G174">
-        <v>11709</v>
+        <v>11708</v>
       </c>
       <c r="H174">
         <v>46969</v>
@@ -5455,10 +5458,10 @@
         <v>31560</v>
       </c>
       <c r="C175">
-        <v>20397</v>
+        <v>20396</v>
       </c>
       <c r="D175">
-        <v>2047</v>
+        <v>2173</v>
       </c>
       <c r="E175">
         <v>8072</v>
@@ -5471,6 +5474,32 @@
       </c>
       <c r="H175">
         <v>49323</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176">
+        <v>21821</v>
+      </c>
+      <c r="C176">
+        <v>19924</v>
+      </c>
+      <c r="D176">
+        <v>2233</v>
+      </c>
+      <c r="E176">
+        <v>5563</v>
+      </c>
+      <c r="F176">
+        <v>3662</v>
+      </c>
+      <c r="G176">
+        <v>14060</v>
+      </c>
+      <c r="H176">
+        <v>48663</v>
       </c>
     </row>
   </sheetData>

--- a/6/3/2/Total transacciones por contraparte 2007 a 2021 - Mensual.xlsx
+++ b/6/3/2/Total transacciones por contraparte 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Serie</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5432,7 +5435,7 @@
         <v>52463</v>
       </c>
       <c r="C174">
-        <v>20258</v>
+        <v>20255</v>
       </c>
       <c r="D174">
         <v>2697</v>
@@ -5444,7 +5447,7 @@
         <v>2473</v>
       </c>
       <c r="G174">
-        <v>11708</v>
+        <v>11706</v>
       </c>
       <c r="H174">
         <v>46969</v>
@@ -5470,10 +5473,10 @@
         <v>3348</v>
       </c>
       <c r="G175">
-        <v>12918</v>
+        <v>12916</v>
       </c>
       <c r="H175">
-        <v>49323</v>
+        <v>49373</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5484,7 +5487,7 @@
         <v>21821</v>
       </c>
       <c r="C176">
-        <v>19924</v>
+        <v>19770</v>
       </c>
       <c r="D176">
         <v>2233</v>
@@ -5493,13 +5496,39 @@
         <v>5563</v>
       </c>
       <c r="F176">
-        <v>3662</v>
+        <v>3658</v>
       </c>
       <c r="G176">
         <v>14060</v>
       </c>
       <c r="H176">
         <v>48663</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>183</v>
+      </c>
+      <c r="B177">
+        <v>24156</v>
+      </c>
+      <c r="C177">
+        <v>20244</v>
+      </c>
+      <c r="D177">
+        <v>2215</v>
+      </c>
+      <c r="E177">
+        <v>5897</v>
+      </c>
+      <c r="F177">
+        <v>2779</v>
+      </c>
+      <c r="G177">
+        <v>12263</v>
+      </c>
+      <c r="H177">
+        <v>48488</v>
       </c>
     </row>
   </sheetData>

--- a/6/3/2/Total transacciones por contraparte 2007 a 2021 - Mensual.xlsx
+++ b/6/3/2/Total transacciones por contraparte 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>Serie</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -923,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5487,7 +5490,7 @@
         <v>21821</v>
       </c>
       <c r="C176">
-        <v>19770</v>
+        <v>19765</v>
       </c>
       <c r="D176">
         <v>2233</v>
@@ -5513,7 +5516,7 @@
         <v>24156</v>
       </c>
       <c r="C177">
-        <v>20244</v>
+        <v>20239</v>
       </c>
       <c r="D177">
         <v>2215</v>
@@ -5525,10 +5528,36 @@
         <v>2779</v>
       </c>
       <c r="G177">
-        <v>12263</v>
+        <v>12264</v>
       </c>
       <c r="H177">
         <v>48488</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178">
+        <v>22242</v>
+      </c>
+      <c r="C178">
+        <v>20596</v>
+      </c>
+      <c r="D178">
+        <v>2250</v>
+      </c>
+      <c r="E178">
+        <v>6264</v>
+      </c>
+      <c r="F178">
+        <v>3123</v>
+      </c>
+      <c r="G178">
+        <v>10691</v>
+      </c>
+      <c r="H178">
+        <v>54199</v>
       </c>
     </row>
   </sheetData>
